--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H2">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.509196</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N2">
-        <v>1.527588</v>
+        <v>1.641596</v>
       </c>
       <c r="O2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q2">
-        <v>1.29416661298</v>
+        <v>1.489426617184</v>
       </c>
       <c r="R2">
-        <v>11.64749951682</v>
+        <v>13.404839554656</v>
       </c>
       <c r="S2">
-        <v>0.001067720968865493</v>
+        <v>0.001039148792619768</v>
       </c>
       <c r="T2">
-        <v>0.001067720968865493</v>
+        <v>0.001039148792619768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H3">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>53.028774</v>
       </c>
       <c r="O3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q3">
-        <v>44.92577110979</v>
+        <v>48.113218765296</v>
       </c>
       <c r="R3">
-        <v>404.33193998811</v>
+        <v>433.018968887664</v>
       </c>
       <c r="S3">
-        <v>0.03706492454315512</v>
+        <v>0.03356781234615979</v>
       </c>
       <c r="T3">
-        <v>0.03706492454315512</v>
+        <v>0.0335678123461598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H4">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.719084666666667</v>
+        <v>2.604410666666667</v>
       </c>
       <c r="N4">
-        <v>5.157254</v>
+        <v>7.813232000000001</v>
       </c>
       <c r="O4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="P4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="Q4">
-        <v>4.369205532812222</v>
+        <v>7.088976646528001</v>
       </c>
       <c r="R4">
-        <v>39.32284979531</v>
+        <v>63.80078981875202</v>
       </c>
       <c r="S4">
-        <v>0.003604707707552977</v>
+        <v>0.00494586402455789</v>
       </c>
       <c r="T4">
-        <v>0.003604707707552977</v>
+        <v>0.004945864024557891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.91769833333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H5">
-        <v>68.753095</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I5">
-        <v>0.3763489380923739</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J5">
-        <v>0.3763489380923739</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.509196</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N5">
-        <v>1.527588</v>
+        <v>0.057256</v>
       </c>
       <c r="O5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="P5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="Q5">
-        <v>11.66960032054</v>
+        <v>0.051948597824</v>
       </c>
       <c r="R5">
-        <v>105.02640288486</v>
+        <v>0.4675373804160001</v>
       </c>
       <c r="S5">
-        <v>0.009627722455170915</v>
+        <v>3.624369410636808E-05</v>
       </c>
       <c r="T5">
-        <v>0.009627722455170915</v>
+        <v>3.624369410636809E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +794,40 @@
         <v>68.753095</v>
       </c>
       <c r="I6">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J6">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>17.676258</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N6">
-        <v>53.028774</v>
+        <v>1.641596</v>
       </c>
       <c r="O6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q6">
-        <v>405.09914850617</v>
+        <v>12.54053397106889</v>
       </c>
       <c r="R6">
-        <v>3645.89233655553</v>
+        <v>112.86480573962</v>
       </c>
       <c r="S6">
-        <v>0.3342172877830826</v>
+        <v>0.008749327146765729</v>
       </c>
       <c r="T6">
-        <v>0.3342172877830826</v>
+        <v>0.008749327146765729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>68.753095</v>
       </c>
       <c r="I7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.719084666666667</v>
+        <v>17.676258</v>
       </c>
       <c r="N7">
-        <v>5.157254</v>
+        <v>53.028774</v>
       </c>
       <c r="O7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q7">
-        <v>39.39746380012556</v>
+        <v>405.09914850617</v>
       </c>
       <c r="R7">
-        <v>354.57717420113</v>
+        <v>3645.89233655553</v>
       </c>
       <c r="S7">
-        <v>0.03250392785412037</v>
+        <v>0.2826311052889411</v>
       </c>
       <c r="T7">
-        <v>0.03250392785412037</v>
+        <v>0.2826311052889411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,61 +912,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.39544900000001</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H8">
-        <v>106.186347</v>
+        <v>68.753095</v>
       </c>
       <c r="I8">
-        <v>0.5812555628711455</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J8">
-        <v>0.5812555628711454</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.509196</v>
+        <v>2.604410666666667</v>
       </c>
       <c r="N8">
-        <v>1.527588</v>
+        <v>7.813232000000001</v>
       </c>
       <c r="O8">
-        <v>0.02558190413389134</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="P8">
-        <v>0.02558190413389134</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="Q8">
-        <v>18.023221049004</v>
+        <v>59.68709799478223</v>
       </c>
       <c r="R8">
-        <v>162.208989441036</v>
+        <v>537.1838819530401</v>
       </c>
       <c r="S8">
-        <v>0.0148696240866607</v>
+        <v>0.04164272015866187</v>
       </c>
       <c r="T8">
-        <v>0.01486962408666069</v>
+        <v>0.04164272015866187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.39544900000001</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H9">
-        <v>106.186347</v>
+        <v>68.753095</v>
       </c>
       <c r="I9">
-        <v>0.5812555628711455</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J9">
-        <v>0.5812555628711454</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.676258</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N9">
-        <v>53.028774</v>
+        <v>0.057256</v>
       </c>
       <c r="O9">
-        <v>0.8880516296316739</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="P9">
-        <v>0.8880516296316739</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="Q9">
-        <v>625.6590885498422</v>
+        <v>0.4373919119244444</v>
       </c>
       <c r="R9">
-        <v>5630.931796948578</v>
+        <v>3.93652720732</v>
       </c>
       <c r="S9">
-        <v>0.5161849498401967</v>
+        <v>0.0003051612425439746</v>
       </c>
       <c r="T9">
-        <v>0.5161849498401966</v>
+        <v>0.0003051612425439746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,75 +1021,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H10">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I10">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J10">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.719084666666667</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N10">
-        <v>5.157254</v>
+        <v>1.641596</v>
       </c>
       <c r="O10">
-        <v>0.0863664662344347</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P10">
-        <v>0.0863664662344347</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q10">
-        <v>60.84777364568201</v>
+        <v>0.01575968639911111</v>
       </c>
       <c r="R10">
-        <v>547.6299628111381</v>
+        <v>0.141837177592</v>
       </c>
       <c r="S10">
-        <v>0.05020098894428813</v>
+        <v>1.09952775818289E-05</v>
       </c>
       <c r="T10">
-        <v>0.05020098894428811</v>
+        <v>1.09952775818289E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,60 +1098,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H11">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I11">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J11">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.509196</v>
+        <v>17.676258</v>
       </c>
       <c r="N11">
-        <v>1.527588</v>
+        <v>53.028774</v>
       </c>
       <c r="O11">
-        <v>0.02558190413389134</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P11">
-        <v>0.02558190413389134</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q11">
-        <v>0.020407387556</v>
+        <v>0.509088014572</v>
       </c>
       <c r="R11">
-        <v>0.183666488004</v>
+        <v>4.581792131148</v>
       </c>
       <c r="S11">
-        <v>1.683662319423678E-05</v>
+        <v>0.0003551824504653223</v>
       </c>
       <c r="T11">
-        <v>1.683662319423677E-05</v>
+        <v>0.0003551824504653222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H12">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I12">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J12">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,42 +1178,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.676258</v>
+        <v>2.604410666666667</v>
       </c>
       <c r="N12">
-        <v>53.028774</v>
+        <v>7.813232000000001</v>
       </c>
       <c r="O12">
-        <v>0.8880516296316739</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="P12">
-        <v>0.8880516296316739</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="Q12">
-        <v>0.708423176038</v>
+        <v>0.07500876347377779</v>
       </c>
       <c r="R12">
-        <v>6.375808584342</v>
+        <v>0.6750788712640001</v>
       </c>
       <c r="S12">
-        <v>0.0005844674652395412</v>
+        <v>5.233239764913424E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005844674652395411</v>
+        <v>5.233239764913424E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,46 +1222,542 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04007766666666666</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H13">
-        <v>0.120233</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006581458169070118</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J13">
-        <v>0.0006581458169070117</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.719084666666667</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N13">
-        <v>5.157254</v>
+        <v>0.057256</v>
       </c>
       <c r="O13">
-        <v>0.0863664662344347</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="P13">
-        <v>0.0863664662344347</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="Q13">
-        <v>0.06889690224244444</v>
+        <v>0.0005496703235555555</v>
       </c>
       <c r="R13">
-        <v>0.620072120182</v>
+        <v>0.004947032912</v>
       </c>
       <c r="S13">
-        <v>5.684172847323388E-05</v>
+        <v>3.834960692065498E-07</v>
       </c>
       <c r="T13">
-        <v>5.684172847323387E-05</v>
+        <v>3.834960692065498E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H14">
+        <v>129.103369</v>
+      </c>
+      <c r="I14">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J14">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5471986666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.641596</v>
+      </c>
+      <c r="O14">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="P14">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="Q14">
+        <v>23.54839712632489</v>
+      </c>
+      <c r="R14">
+        <v>211.935574136924</v>
+      </c>
+      <c r="S14">
+        <v>0.01642933472494021</v>
+      </c>
+      <c r="T14">
+        <v>0.01642933472494021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H15">
+        <v>129.103369</v>
+      </c>
+      <c r="I15">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J15">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.676258</v>
+      </c>
+      <c r="N15">
+        <v>53.028774</v>
+      </c>
+      <c r="O15">
+        <v>0.8479060840514853</v>
+      </c>
+      <c r="P15">
+        <v>0.8479060840514852</v>
+      </c>
+      <c r="Q15">
+        <v>760.6881530377341</v>
+      </c>
+      <c r="R15">
+        <v>6846.193377339607</v>
+      </c>
+      <c r="S15">
+        <v>0.530719786171023</v>
+      </c>
+      <c r="T15">
+        <v>0.5307197861710229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H16">
+        <v>129.103369</v>
+      </c>
+      <c r="I16">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J16">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P16">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q16">
+        <v>112.0793971087342</v>
+      </c>
+      <c r="R16">
+        <v>1008.714573978608</v>
+      </c>
+      <c r="S16">
+        <v>0.07819597745828698</v>
+      </c>
+      <c r="T16">
+        <v>0.07819597745828698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H17">
+        <v>129.103369</v>
+      </c>
+      <c r="I17">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J17">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.057256</v>
+      </c>
+      <c r="O17">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P17">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q17">
+        <v>0.8213269439404445</v>
+      </c>
+      <c r="R17">
+        <v>7.391942495464001</v>
+      </c>
+      <c r="S17">
+        <v>0.0005730264870352856</v>
+      </c>
+      <c r="T17">
+        <v>0.0005730264870352856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.051263</v>
+      </c>
+      <c r="H18">
+        <v>0.153789</v>
+      </c>
+      <c r="I18">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J18">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.5471986666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.641596</v>
+      </c>
+      <c r="O18">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="P18">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="Q18">
+        <v>0.02805104524933334</v>
+      </c>
+      <c r="R18">
+        <v>0.252459407244</v>
+      </c>
+      <c r="S18">
+        <v>1.957075928834847E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.957075928834847E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.051263</v>
+      </c>
+      <c r="H19">
+        <v>0.153789</v>
+      </c>
+      <c r="I19">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J19">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.676258</v>
+      </c>
+      <c r="N19">
+        <v>53.028774</v>
+      </c>
+      <c r="O19">
+        <v>0.8479060840514853</v>
+      </c>
+      <c r="P19">
+        <v>0.8479060840514852</v>
+      </c>
+      <c r="Q19">
+        <v>0.9061380138540001</v>
+      </c>
+      <c r="R19">
+        <v>8.155242124686</v>
+      </c>
+      <c r="S19">
+        <v>0.0006321977948960839</v>
+      </c>
+      <c r="T19">
+        <v>0.0006321977948960838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.051263</v>
+      </c>
+      <c r="H20">
+        <v>0.153789</v>
+      </c>
+      <c r="I20">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J20">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P20">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q20">
+        <v>0.1335099040053334</v>
+      </c>
+      <c r="R20">
+        <v>1.201589136048</v>
+      </c>
+      <c r="S20">
+        <v>9.31476945216859E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.31476945216859E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.051263</v>
+      </c>
+      <c r="H21">
+        <v>0.153789</v>
+      </c>
+      <c r="I21">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J21">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.057256</v>
+      </c>
+      <c r="O21">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P21">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q21">
+        <v>0.0009783714426666668</v>
+      </c>
+      <c r="R21">
+        <v>0.008805342984</v>
+      </c>
+      <c r="S21">
+        <v>6.82593886567511E-07</v>
+      </c>
+      <c r="T21">
+        <v>6.82593886567511E-07</v>
       </c>
     </row>
   </sheetData>
